--- a/Moex_Bonds_Detail.xlsx
+++ b/Moex_Bonds_Detail.xlsx
@@ -470,7 +470,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-12T15:56:56+00:00</t>
+          <t>2026-02-12T16:13:04+00:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
